--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2177.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2177.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.126306388620344</v>
+        <v>1.276276707649231</v>
       </c>
       <c r="B1">
-        <v>1.882334681720659</v>
+        <v>2.390237331390381</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.088708719802633</v>
+        <v>1.376641392707825</v>
       </c>
       <c r="E1">
-        <v>0.875831528895018</v>
+        <v>0.85772705078125</v>
       </c>
     </row>
   </sheetData>
